--- a/output/20200421_JBC_MIBiG_validation_set_final.xlsx
+++ b/output/20200421_JBC_MIBiG_validation_set_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/Wageningen_UR/github/mibig_training_set_build_test/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33D1E4C-2827-9749-BCCB-F34F44B92C14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F544EE-61D5-1E47-8D20-0F2C4D8FE1E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" xr2:uid="{B6752483-84B7-244F-8DEE-5CED96FC8E43}"/>
   </bookViews>
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FD30A2-1A76-BD4D-8A3A-8FBA7C1A285C}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
